--- a/LAB7/dados.xlsx
+++ b/LAB7/dados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="460" windowWidth="28080" windowHeight="17380" tabRatio="500"/>
+    <workbookView xWindow="2280" yWindow="460" windowWidth="31560" windowHeight="20780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="dados" sheetId="1" r:id="rId1"/>
@@ -680,484 +680,484 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.285749</c:v>
+                  <c:v>0.958179</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.561328</c:v>
+                  <c:v>1.87557</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.827009</c:v>
+                  <c:v>2.75348</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.08306</c:v>
+                  <c:v>3.59316</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.32973</c:v>
+                  <c:v>4.39586</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.56728</c:v>
+                  <c:v>5.16275</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.79596</c:v>
+                  <c:v>5.89502</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.016</c:v>
+                  <c:v>6.59377</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.22764</c:v>
+                  <c:v>7.2601</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.43111</c:v>
+                  <c:v>7.89509</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.62664</c:v>
+                  <c:v>8.49976</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.81444</c:v>
+                  <c:v>9.07511</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.99472</c:v>
+                  <c:v>9.622120000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.16769</c:v>
+                  <c:v>10.1417</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.33356</c:v>
+                  <c:v>10.6349</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.49252</c:v>
+                  <c:v>11.1024</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.64477</c:v>
+                  <c:v>11.5452</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.7905</c:v>
+                  <c:v>11.9642</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.92988</c:v>
+                  <c:v>12.3601</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.06311</c:v>
+                  <c:v>12.7337</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.19035</c:v>
+                  <c:v>13.0858</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.31177</c:v>
+                  <c:v>13.4172</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.42755</c:v>
+                  <c:v>13.7285</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.53784</c:v>
+                  <c:v>14.0205</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.6428</c:v>
+                  <c:v>14.2938</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.74259</c:v>
+                  <c:v>14.5492</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.83736</c:v>
+                  <c:v>14.7872</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.92725</c:v>
+                  <c:v>15.0085</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.01242</c:v>
+                  <c:v>15.2136</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.09299</c:v>
+                  <c:v>15.4033</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.16911</c:v>
+                  <c:v>15.5779</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.2409</c:v>
+                  <c:v>15.7382</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.30851</c:v>
+                  <c:v>15.8846</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.37205</c:v>
+                  <c:v>16.0176</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.43164</c:v>
+                  <c:v>16.1378</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.48742</c:v>
+                  <c:v>16.2456</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.53949</c:v>
+                  <c:v>16.3414</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.58796</c:v>
+                  <c:v>16.4259</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.63296</c:v>
+                  <c:v>16.4993</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.67459</c:v>
+                  <c:v>16.5622</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.71296</c:v>
+                  <c:v>16.615</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.74816</c:v>
+                  <c:v>16.658</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.7803</c:v>
+                  <c:v>16.6916</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.80947</c:v>
+                  <c:v>16.7162</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.83578</c:v>
+                  <c:v>16.7323</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.85931</c:v>
+                  <c:v>16.7401</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.88015</c:v>
+                  <c:v>16.7399</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.8984</c:v>
+                  <c:v>16.7322</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.91414</c:v>
+                  <c:v>16.7173</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.92745</c:v>
+                  <c:v>16.6954</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.93841</c:v>
+                  <c:v>16.6668</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.94711</c:v>
+                  <c:v>16.6319</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.95361</c:v>
+                  <c:v>16.591</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.958</c:v>
+                  <c:v>16.5442</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.96035</c:v>
+                  <c:v>16.492</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.96073</c:v>
+                  <c:v>16.4344</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.95921</c:v>
+                  <c:v>16.3719</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.95586</c:v>
+                  <c:v>16.3045</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.95073</c:v>
+                  <c:v>16.2326</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.94391</c:v>
+                  <c:v>16.1564</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.93544</c:v>
+                  <c:v>16.0761</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.92539</c:v>
+                  <c:v>15.9918</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.91382</c:v>
+                  <c:v>15.9039</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.90079</c:v>
+                  <c:v>15.8125</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.88635</c:v>
+                  <c:v>15.7178</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.87055</c:v>
+                  <c:v>15.6199</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.85345</c:v>
+                  <c:v>15.5191</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.8351</c:v>
+                  <c:v>15.4154</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5.81555</c:v>
+                  <c:v>15.3092</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5.79485</c:v>
+                  <c:v>15.2005</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.77304</c:v>
+                  <c:v>15.0895</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.75018</c:v>
+                  <c:v>14.9764</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.7263</c:v>
+                  <c:v>14.8612</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.70145</c:v>
+                  <c:v>14.7441</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5.67567</c:v>
+                  <c:v>14.6253</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5.649</c:v>
+                  <c:v>14.5049</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5.62148</c:v>
+                  <c:v>14.383</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5.59316</c:v>
+                  <c:v>14.2597</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5.56406</c:v>
+                  <c:v>14.1351</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5.53423</c:v>
+                  <c:v>14.0094</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5.5037</c:v>
+                  <c:v>13.8826</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5.4725</c:v>
+                  <c:v>13.7548</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5.44067</c:v>
+                  <c:v>13.6262</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5.40824</c:v>
+                  <c:v>13.4969</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.37524</c:v>
+                  <c:v>13.3669</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.3417</c:v>
+                  <c:v>13.2363</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5.30765</c:v>
+                  <c:v>13.1052</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5.27313</c:v>
+                  <c:v>12.9737</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.23815</c:v>
+                  <c:v>12.8419</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.20275</c:v>
+                  <c:v>12.7098</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.16695</c:v>
+                  <c:v>12.5775</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5.13077</c:v>
+                  <c:v>12.445</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5.09425</c:v>
+                  <c:v>12.3126</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5.0574</c:v>
+                  <c:v>12.1801</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.02025</c:v>
+                  <c:v>12.0477</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.98282</c:v>
+                  <c:v>11.9154</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.94513</c:v>
+                  <c:v>11.7832</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.90721</c:v>
+                  <c:v>11.6513</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.86907</c:v>
+                  <c:v>11.5197</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.83074</c:v>
+                  <c:v>11.3884</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>4.79222</c:v>
+                  <c:v>11.2575</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4.75355</c:v>
+                  <c:v>11.127</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>4.71474</c:v>
+                  <c:v>10.9969</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4.6758</c:v>
+                  <c:v>10.8673</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4.63675</c:v>
+                  <c:v>10.7383</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>4.59762</c:v>
+                  <c:v>10.6098</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4.55841</c:v>
+                  <c:v>10.482</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>4.51914</c:v>
+                  <c:v>10.3548</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>4.47982</c:v>
+                  <c:v>10.2282</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>4.44047</c:v>
+                  <c:v>10.1024</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>4.4011</c:v>
+                  <c:v>9.977220000000001</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>4.36173</c:v>
+                  <c:v>9.85284</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>4.32237</c:v>
+                  <c:v>9.72923</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>4.28302</c:v>
+                  <c:v>9.60642</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>4.24371</c:v>
+                  <c:v>9.48443</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>4.20444</c:v>
+                  <c:v>9.36328</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>4.16522</c:v>
+                  <c:v>9.243</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>4.12607</c:v>
+                  <c:v>9.12359</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>4.087</c:v>
+                  <c:v>9.00508</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>4.048</c:v>
+                  <c:v>8.88748</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>4.0091</c:v>
+                  <c:v>8.7708</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>3.97031</c:v>
+                  <c:v>8.65507</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3.93162</c:v>
+                  <c:v>8.540290000000001</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3.89305</c:v>
+                  <c:v>8.42647</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3.85462</c:v>
+                  <c:v>8.31363</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3.81631</c:v>
+                  <c:v>8.20178</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3.77815</c:v>
+                  <c:v>8.090920000000001</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3.74014</c:v>
+                  <c:v>7.98107</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.70229</c:v>
+                  <c:v>7.87222</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3.66459</c:v>
+                  <c:v>7.7644</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3.62707</c:v>
+                  <c:v>7.6576</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3.58972</c:v>
+                  <c:v>7.55182</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3.55256</c:v>
+                  <c:v>7.44708</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>3.51558</c:v>
+                  <c:v>7.34338</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3.47879</c:v>
+                  <c:v>7.24072</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>3.44219</c:v>
+                  <c:v>7.1391</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3.4058</c:v>
+                  <c:v>7.03853</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3.36961</c:v>
+                  <c:v>6.93901</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3.33364</c:v>
+                  <c:v>6.84053</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3.29787</c:v>
+                  <c:v>6.7431</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>3.26232</c:v>
+                  <c:v>6.64672</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>3.227</c:v>
+                  <c:v>6.55139</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>3.1919</c:v>
+                  <c:v>6.45711</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>3.15702</c:v>
+                  <c:v>6.36387</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3.12238</c:v>
+                  <c:v>6.27167</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>3.08797</c:v>
+                  <c:v>6.18052</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>3.05379</c:v>
+                  <c:v>6.0904</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>3.01985</c:v>
+                  <c:v>6.00133</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2.98616</c:v>
+                  <c:v>5.91328</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2.9527</c:v>
+                  <c:v>5.82627</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2.9195</c:v>
+                  <c:v>5.74027</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2.88654</c:v>
+                  <c:v>5.65531</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2.85382</c:v>
+                  <c:v>5.57135</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2.82136</c:v>
+                  <c:v>5.48841</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2.78915</c:v>
+                  <c:v>5.40648</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2.75719</c:v>
+                  <c:v>5.32554</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2.72549</c:v>
+                  <c:v>5.24561</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2.69404</c:v>
+                  <c:v>5.16666</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2.66285</c:v>
+                  <c:v>5.0887</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2.63192</c:v>
+                  <c:v>5.01171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1172,11 +1172,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2129061664"/>
-        <c:axId val="-2103889792"/>
+        <c:axId val="-2143121056"/>
+        <c:axId val="2121848080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2129061664"/>
+        <c:axId val="-2143121056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1233,12 +1233,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103889792"/>
+        <c:crossAx val="2121848080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2103889792"/>
+        <c:axId val="2121848080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1295,7 +1295,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2129061664"/>
+        <c:crossAx val="-2143121056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1937,484 +1937,484 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.285749</c:v>
+                  <c:v>0.958179</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.561328</c:v>
+                  <c:v>1.87557</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.827009</c:v>
+                  <c:v>2.75348</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.08306</c:v>
+                  <c:v>3.59316</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.32973</c:v>
+                  <c:v>4.39586</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.56728</c:v>
+                  <c:v>5.16275</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.79596</c:v>
+                  <c:v>5.89502</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.016</c:v>
+                  <c:v>6.59377</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.22764</c:v>
+                  <c:v>7.2601</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.43111</c:v>
+                  <c:v>7.89509</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.62664</c:v>
+                  <c:v>8.49976</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.81444</c:v>
+                  <c:v>9.07511</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.99472</c:v>
+                  <c:v>9.622120000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.16769</c:v>
+                  <c:v>10.1417</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.33356</c:v>
+                  <c:v>10.6349</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.49252</c:v>
+                  <c:v>11.1024</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.64477</c:v>
+                  <c:v>11.5452</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.7905</c:v>
+                  <c:v>11.9642</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.92988</c:v>
+                  <c:v>12.3601</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.06311</c:v>
+                  <c:v>12.7337</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.19035</c:v>
+                  <c:v>13.0858</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.31177</c:v>
+                  <c:v>13.4172</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.42755</c:v>
+                  <c:v>13.7285</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.53784</c:v>
+                  <c:v>14.0205</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.6428</c:v>
+                  <c:v>14.2938</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.74259</c:v>
+                  <c:v>14.5492</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.83736</c:v>
+                  <c:v>14.7872</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.92725</c:v>
+                  <c:v>15.0085</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.01242</c:v>
+                  <c:v>15.2136</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.09299</c:v>
+                  <c:v>15.4033</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.16911</c:v>
+                  <c:v>15.5779</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.2409</c:v>
+                  <c:v>15.7382</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.30851</c:v>
+                  <c:v>15.8846</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.37205</c:v>
+                  <c:v>16.0176</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.43164</c:v>
+                  <c:v>16.1378</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.48742</c:v>
+                  <c:v>16.2456</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.53949</c:v>
+                  <c:v>16.3414</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.58796</c:v>
+                  <c:v>16.4259</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.63296</c:v>
+                  <c:v>16.4993</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.67459</c:v>
+                  <c:v>16.5622</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.71296</c:v>
+                  <c:v>16.615</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.74816</c:v>
+                  <c:v>16.658</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.7803</c:v>
+                  <c:v>16.6916</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.80947</c:v>
+                  <c:v>16.7162</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.83578</c:v>
+                  <c:v>16.7323</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.85931</c:v>
+                  <c:v>16.7401</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.88015</c:v>
+                  <c:v>16.7399</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.8984</c:v>
+                  <c:v>16.7322</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.91414</c:v>
+                  <c:v>16.7173</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.92745</c:v>
+                  <c:v>16.6954</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.93841</c:v>
+                  <c:v>16.6668</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.94711</c:v>
+                  <c:v>16.6319</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.95361</c:v>
+                  <c:v>16.591</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.958</c:v>
+                  <c:v>16.5442</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.96035</c:v>
+                  <c:v>16.492</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.96073</c:v>
+                  <c:v>16.4344</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.95921</c:v>
+                  <c:v>16.3719</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.95586</c:v>
+                  <c:v>16.3045</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.95073</c:v>
+                  <c:v>16.2326</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.94391</c:v>
+                  <c:v>16.1564</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.93544</c:v>
+                  <c:v>16.0761</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.92539</c:v>
+                  <c:v>15.9918</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.91382</c:v>
+                  <c:v>15.9039</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.90079</c:v>
+                  <c:v>15.8125</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.88635</c:v>
+                  <c:v>15.7178</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.87055</c:v>
+                  <c:v>15.6199</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.85345</c:v>
+                  <c:v>15.5191</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.8351</c:v>
+                  <c:v>15.4154</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5.81555</c:v>
+                  <c:v>15.3092</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5.79485</c:v>
+                  <c:v>15.2005</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.77304</c:v>
+                  <c:v>15.0895</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.75018</c:v>
+                  <c:v>14.9764</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.7263</c:v>
+                  <c:v>14.8612</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.70145</c:v>
+                  <c:v>14.7441</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5.67567</c:v>
+                  <c:v>14.6253</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5.649</c:v>
+                  <c:v>14.5049</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5.62148</c:v>
+                  <c:v>14.383</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5.59316</c:v>
+                  <c:v>14.2597</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5.56406</c:v>
+                  <c:v>14.1351</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5.53423</c:v>
+                  <c:v>14.0094</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5.5037</c:v>
+                  <c:v>13.8826</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5.4725</c:v>
+                  <c:v>13.7548</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5.44067</c:v>
+                  <c:v>13.6262</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5.40824</c:v>
+                  <c:v>13.4969</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.37524</c:v>
+                  <c:v>13.3669</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.3417</c:v>
+                  <c:v>13.2363</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5.30765</c:v>
+                  <c:v>13.1052</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5.27313</c:v>
+                  <c:v>12.9737</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.23815</c:v>
+                  <c:v>12.8419</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.20275</c:v>
+                  <c:v>12.7098</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.16695</c:v>
+                  <c:v>12.5775</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5.13077</c:v>
+                  <c:v>12.445</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5.09425</c:v>
+                  <c:v>12.3126</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5.0574</c:v>
+                  <c:v>12.1801</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.02025</c:v>
+                  <c:v>12.0477</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.98282</c:v>
+                  <c:v>11.9154</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.94513</c:v>
+                  <c:v>11.7832</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.90721</c:v>
+                  <c:v>11.6513</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.86907</c:v>
+                  <c:v>11.5197</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.83074</c:v>
+                  <c:v>11.3884</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>4.79222</c:v>
+                  <c:v>11.2575</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4.75355</c:v>
+                  <c:v>11.127</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>4.71474</c:v>
+                  <c:v>10.9969</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4.6758</c:v>
+                  <c:v>10.8673</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4.63675</c:v>
+                  <c:v>10.7383</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>4.59762</c:v>
+                  <c:v>10.6098</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4.55841</c:v>
+                  <c:v>10.482</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>4.51914</c:v>
+                  <c:v>10.3548</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>4.47982</c:v>
+                  <c:v>10.2282</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>4.44047</c:v>
+                  <c:v>10.1024</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>4.4011</c:v>
+                  <c:v>9.977220000000001</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>4.36173</c:v>
+                  <c:v>9.85284</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>4.32237</c:v>
+                  <c:v>9.72923</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>4.28302</c:v>
+                  <c:v>9.60642</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>4.24371</c:v>
+                  <c:v>9.48443</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>4.20444</c:v>
+                  <c:v>9.36328</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>4.16522</c:v>
+                  <c:v>9.243</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>4.12607</c:v>
+                  <c:v>9.12359</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>4.087</c:v>
+                  <c:v>9.00508</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>4.048</c:v>
+                  <c:v>8.88748</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>4.0091</c:v>
+                  <c:v>8.7708</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>3.97031</c:v>
+                  <c:v>8.65507</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3.93162</c:v>
+                  <c:v>8.540290000000001</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3.89305</c:v>
+                  <c:v>8.42647</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3.85462</c:v>
+                  <c:v>8.31363</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3.81631</c:v>
+                  <c:v>8.20178</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3.77815</c:v>
+                  <c:v>8.090920000000001</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3.74014</c:v>
+                  <c:v>7.98107</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.70229</c:v>
+                  <c:v>7.87222</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3.66459</c:v>
+                  <c:v>7.7644</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3.62707</c:v>
+                  <c:v>7.6576</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3.58972</c:v>
+                  <c:v>7.55182</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3.55256</c:v>
+                  <c:v>7.44708</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>3.51558</c:v>
+                  <c:v>7.34338</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3.47879</c:v>
+                  <c:v>7.24072</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>3.44219</c:v>
+                  <c:v>7.1391</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3.4058</c:v>
+                  <c:v>7.03853</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3.36961</c:v>
+                  <c:v>6.93901</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3.33364</c:v>
+                  <c:v>6.84053</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3.29787</c:v>
+                  <c:v>6.7431</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>3.26232</c:v>
+                  <c:v>6.64672</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>3.227</c:v>
+                  <c:v>6.55139</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>3.1919</c:v>
+                  <c:v>6.45711</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>3.15702</c:v>
+                  <c:v>6.36387</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3.12238</c:v>
+                  <c:v>6.27167</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>3.08797</c:v>
+                  <c:v>6.18052</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>3.05379</c:v>
+                  <c:v>6.0904</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>3.01985</c:v>
+                  <c:v>6.00133</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2.98616</c:v>
+                  <c:v>5.91328</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2.9527</c:v>
+                  <c:v>5.82627</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2.9195</c:v>
+                  <c:v>5.74027</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2.88654</c:v>
+                  <c:v>5.65531</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2.85382</c:v>
+                  <c:v>5.57135</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2.82136</c:v>
+                  <c:v>5.48841</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2.78915</c:v>
+                  <c:v>5.40648</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2.75719</c:v>
+                  <c:v>5.32554</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2.72549</c:v>
+                  <c:v>5.24561</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2.69404</c:v>
+                  <c:v>5.16666</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2.66285</c:v>
+                  <c:v>5.0887</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2.63192</c:v>
+                  <c:v>5.01171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2430,11 +2430,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2103556752"/>
-        <c:axId val="-2124139392"/>
+        <c:axId val="2125067248"/>
+        <c:axId val="-2142671360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2103556752"/>
+        <c:axId val="2125067248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2477,7 +2477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124139392"/>
+        <c:crossAx val="-2142671360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2485,7 +2485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124139392"/>
+        <c:axId val="-2142671360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2536,7 +2536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103556752"/>
+        <c:crossAx val="2125067248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4028,7 +4028,7 @@
   <dimension ref="A1:B161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+      <selection sqref="A1:B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4046,7 +4046,7 @@
         <v>0.1</v>
       </c>
       <c r="B2">
-        <v>0.28574899999999998</v>
+        <v>0.958179</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -4054,7 +4054,7 @@
         <v>0.2</v>
       </c>
       <c r="B3">
-        <v>0.56132800000000005</v>
+        <v>1.87557</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -4062,7 +4062,7 @@
         <v>0.3</v>
       </c>
       <c r="B4">
-        <v>0.82700899999999999</v>
+        <v>2.7534800000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -4070,7 +4070,7 @@
         <v>0.4</v>
       </c>
       <c r="B5">
-        <v>1.0830599999999999</v>
+        <v>3.5931600000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -4078,7 +4078,7 @@
         <v>0.5</v>
       </c>
       <c r="B6">
-        <v>1.3297300000000001</v>
+        <v>4.3958599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -4086,7 +4086,7 @@
         <v>0.6</v>
       </c>
       <c r="B7">
-        <v>1.56728</v>
+        <v>5.16275</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -4094,7 +4094,7 @@
         <v>0.7</v>
       </c>
       <c r="B8">
-        <v>1.79596</v>
+        <v>5.8950199999999997</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -4102,7 +4102,7 @@
         <v>0.8</v>
       </c>
       <c r="B9">
-        <v>2.016</v>
+        <v>6.5937700000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -4110,7 +4110,7 @@
         <v>0.9</v>
       </c>
       <c r="B10">
-        <v>2.2276400000000001</v>
+        <v>7.2601000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -4118,7 +4118,7 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>2.4311099999999999</v>
+        <v>7.8950899999999997</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -4126,7 +4126,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B12">
-        <v>2.6266400000000001</v>
+        <v>8.4997600000000002</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -4134,7 +4134,7 @@
         <v>1.2</v>
       </c>
       <c r="B13">
-        <v>2.8144399999999998</v>
+        <v>9.0751100000000005</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -4142,7 +4142,7 @@
         <v>1.3</v>
       </c>
       <c r="B14">
-        <v>2.99472</v>
+        <v>9.6221200000000007</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -4150,7 +4150,7 @@
         <v>1.4</v>
       </c>
       <c r="B15">
-        <v>3.1676899999999999</v>
+        <v>10.1417</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4158,7 +4158,7 @@
         <v>1.5</v>
       </c>
       <c r="B16">
-        <v>3.3335599999999999</v>
+        <v>10.6349</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -4166,7 +4166,7 @@
         <v>1.6</v>
       </c>
       <c r="B17">
-        <v>3.4925199999999998</v>
+        <v>11.102399999999999</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -4174,7 +4174,7 @@
         <v>1.7</v>
       </c>
       <c r="B18">
-        <v>3.6447699999999998</v>
+        <v>11.545199999999999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -4182,7 +4182,7 @@
         <v>1.8</v>
       </c>
       <c r="B19">
-        <v>3.7905000000000002</v>
+        <v>11.9642</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -4190,7 +4190,7 @@
         <v>1.9</v>
       </c>
       <c r="B20">
-        <v>3.9298799999999998</v>
+        <v>12.360099999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -4198,7 +4198,7 @@
         <v>2</v>
       </c>
       <c r="B21">
-        <v>4.06311</v>
+        <v>12.733700000000001</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -4206,7 +4206,7 @@
         <v>2.1</v>
       </c>
       <c r="B22">
-        <v>4.1903499999999996</v>
+        <v>13.085800000000001</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -4214,7 +4214,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B23">
-        <v>4.3117700000000001</v>
+        <v>13.417199999999999</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -4222,7 +4222,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B24">
-        <v>4.4275500000000001</v>
+        <v>13.7285</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -4230,7 +4230,7 @@
         <v>2.4</v>
       </c>
       <c r="B25">
-        <v>4.5378400000000001</v>
+        <v>14.0205</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -4238,7 +4238,7 @@
         <v>2.5</v>
       </c>
       <c r="B26">
-        <v>4.6428000000000003</v>
+        <v>14.293799999999999</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -4246,7 +4246,7 @@
         <v>2.6</v>
       </c>
       <c r="B27">
-        <v>4.7425899999999999</v>
+        <v>14.549200000000001</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -4254,7 +4254,7 @@
         <v>2.7</v>
       </c>
       <c r="B28">
-        <v>4.8373600000000003</v>
+        <v>14.7872</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -4262,7 +4262,7 @@
         <v>2.8</v>
       </c>
       <c r="B29">
-        <v>4.9272499999999999</v>
+        <v>15.0085</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -4270,7 +4270,7 @@
         <v>2.9</v>
       </c>
       <c r="B30">
-        <v>5.0124199999999997</v>
+        <v>15.2136</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -4278,7 +4278,7 @@
         <v>3</v>
       </c>
       <c r="B31">
-        <v>5.0929900000000004</v>
+        <v>15.4033</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -4286,7 +4286,7 @@
         <v>3.1</v>
       </c>
       <c r="B32">
-        <v>5.1691099999999999</v>
+        <v>15.5779</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -4294,7 +4294,7 @@
         <v>3.2</v>
       </c>
       <c r="B33">
-        <v>5.2408999999999999</v>
+        <v>15.738200000000001</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -4302,7 +4302,7 @@
         <v>3.3</v>
       </c>
       <c r="B34">
-        <v>5.3085100000000001</v>
+        <v>15.884600000000001</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -4310,7 +4310,7 @@
         <v>3.4</v>
       </c>
       <c r="B35">
-        <v>5.3720499999999998</v>
+        <v>16.017600000000002</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -4318,7 +4318,7 @@
         <v>3.5</v>
       </c>
       <c r="B36">
-        <v>5.4316399999999998</v>
+        <v>16.137799999999999</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -4326,7 +4326,7 @@
         <v>3.6</v>
       </c>
       <c r="B37">
-        <v>5.4874200000000002</v>
+        <v>16.2456</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -4334,7 +4334,7 @@
         <v>3.7</v>
       </c>
       <c r="B38">
-        <v>5.5394899999999998</v>
+        <v>16.3414</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -4342,7 +4342,7 @@
         <v>3.8</v>
       </c>
       <c r="B39">
-        <v>5.5879599999999998</v>
+        <v>16.425899999999999</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -4350,7 +4350,7 @@
         <v>3.9</v>
       </c>
       <c r="B40">
-        <v>5.6329599999999997</v>
+        <v>16.499300000000002</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -4358,7 +4358,7 @@
         <v>4</v>
       </c>
       <c r="B41">
-        <v>5.6745900000000002</v>
+        <v>16.562200000000001</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -4366,7 +4366,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B42">
-        <v>5.7129599999999998</v>
+        <v>16.614999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -4374,7 +4374,7 @@
         <v>4.2</v>
       </c>
       <c r="B43">
-        <v>5.7481600000000004</v>
+        <v>16.658000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -4382,7 +4382,7 @@
         <v>4.3</v>
       </c>
       <c r="B44">
-        <v>5.7803000000000004</v>
+        <v>16.691600000000001</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -4390,7 +4390,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B45">
-        <v>5.8094700000000001</v>
+        <v>16.716200000000001</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -4398,7 +4398,7 @@
         <v>4.5</v>
       </c>
       <c r="B46">
-        <v>5.8357799999999997</v>
+        <v>16.732299999999999</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -4406,7 +4406,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="B47">
-        <v>5.8593099999999998</v>
+        <v>16.740100000000002</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -4414,7 +4414,7 @@
         <v>4.7</v>
       </c>
       <c r="B48">
-        <v>5.8801500000000004</v>
+        <v>16.739899999999999</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -4422,7 +4422,7 @@
         <v>4.8</v>
       </c>
       <c r="B49">
-        <v>5.8983999999999996</v>
+        <v>16.732199999999999</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -4430,7 +4430,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="B50">
-        <v>5.9141399999999997</v>
+        <v>16.717300000000002</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -4438,7 +4438,7 @@
         <v>5</v>
       </c>
       <c r="B51">
-        <v>5.9274500000000003</v>
+        <v>16.695399999999999</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -4446,7 +4446,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B52">
-        <v>5.9384100000000002</v>
+        <v>16.666799999999999</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -4454,7 +4454,7 @@
         <v>5.2</v>
       </c>
       <c r="B53">
-        <v>5.9471100000000003</v>
+        <v>16.631900000000002</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -4462,7 +4462,7 @@
         <v>5.3</v>
       </c>
       <c r="B54">
-        <v>5.9536100000000003</v>
+        <v>16.591000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -4470,7 +4470,7 @@
         <v>5.4</v>
       </c>
       <c r="B55">
-        <v>5.9580000000000002</v>
+        <v>16.5442</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -4478,7 +4478,7 @@
         <v>5.5</v>
       </c>
       <c r="B56">
-        <v>5.96035</v>
+        <v>16.492000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -4486,7 +4486,7 @@
         <v>5.6</v>
       </c>
       <c r="B57">
-        <v>5.9607299999999999</v>
+        <v>16.4344</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -4494,7 +4494,7 @@
         <v>5.7</v>
       </c>
       <c r="B58">
-        <v>5.9592099999999997</v>
+        <v>16.3719</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -4502,7 +4502,7 @@
         <v>5.8</v>
       </c>
       <c r="B59">
-        <v>5.9558600000000004</v>
+        <v>16.304500000000001</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -4510,7 +4510,7 @@
         <v>5.9</v>
       </c>
       <c r="B60">
-        <v>5.9507300000000001</v>
+        <v>16.232600000000001</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -4518,7 +4518,7 @@
         <v>6</v>
       </c>
       <c r="B61">
-        <v>5.9439099999999998</v>
+        <v>16.156400000000001</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -4526,7 +4526,7 @@
         <v>6.1</v>
       </c>
       <c r="B62">
-        <v>5.9354399999999998</v>
+        <v>16.0761</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -4534,7 +4534,7 @@
         <v>6.2</v>
       </c>
       <c r="B63">
-        <v>5.9253900000000002</v>
+        <v>15.9918</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -4542,7 +4542,7 @@
         <v>6.3</v>
       </c>
       <c r="B64">
-        <v>5.9138200000000003</v>
+        <v>15.9039</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -4550,7 +4550,7 @@
         <v>6.4</v>
       </c>
       <c r="B65">
-        <v>5.9007899999999998</v>
+        <v>15.8125</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -4558,7 +4558,7 @@
         <v>6.5</v>
       </c>
       <c r="B66">
-        <v>5.8863500000000002</v>
+        <v>15.7178</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -4566,7 +4566,7 @@
         <v>6.6</v>
       </c>
       <c r="B67">
-        <v>5.8705499999999997</v>
+        <v>15.619899999999999</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -4574,7 +4574,7 @@
         <v>6.7</v>
       </c>
       <c r="B68">
-        <v>5.8534499999999996</v>
+        <v>15.5191</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -4582,7 +4582,7 @@
         <v>6.8</v>
       </c>
       <c r="B69">
-        <v>5.8350999999999997</v>
+        <v>15.4154</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -4590,7 +4590,7 @@
         <v>6.9</v>
       </c>
       <c r="B70">
-        <v>5.81555</v>
+        <v>15.309200000000001</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -4598,7 +4598,7 @@
         <v>7</v>
       </c>
       <c r="B71">
-        <v>5.7948500000000003</v>
+        <v>15.2005</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -4606,7 +4606,7 @@
         <v>7.1</v>
       </c>
       <c r="B72">
-        <v>5.7730399999999999</v>
+        <v>15.089499999999999</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -4614,7 +4614,7 @@
         <v>7.2</v>
       </c>
       <c r="B73">
-        <v>5.7501800000000003</v>
+        <v>14.9764</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -4622,7 +4622,7 @@
         <v>7.3</v>
       </c>
       <c r="B74">
-        <v>5.7263000000000002</v>
+        <v>14.8612</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -4630,7 +4630,7 @@
         <v>7.4</v>
       </c>
       <c r="B75">
-        <v>5.7014500000000004</v>
+        <v>14.7441</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -4638,7 +4638,7 @@
         <v>7.5</v>
       </c>
       <c r="B76">
-        <v>5.6756700000000002</v>
+        <v>14.625299999999999</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -4646,7 +4646,7 @@
         <v>7.6</v>
       </c>
       <c r="B77">
-        <v>5.649</v>
+        <v>14.504899999999999</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -4654,7 +4654,7 @@
         <v>7.7</v>
       </c>
       <c r="B78">
-        <v>5.62148</v>
+        <v>14.382999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -4662,7 +4662,7 @@
         <v>7.8</v>
       </c>
       <c r="B79">
-        <v>5.5931600000000001</v>
+        <v>14.2597</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -4670,7 +4670,7 @@
         <v>7.9</v>
       </c>
       <c r="B80">
-        <v>5.5640599999999996</v>
+        <v>14.1351</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -4678,7 +4678,7 @@
         <v>8</v>
       </c>
       <c r="B81">
-        <v>5.53423</v>
+        <v>14.009399999999999</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -4686,7 +4686,7 @@
         <v>8.1</v>
       </c>
       <c r="B82">
-        <v>5.5037000000000003</v>
+        <v>13.8826</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -4694,7 +4694,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="B83">
-        <v>5.4725000000000001</v>
+        <v>13.754799999999999</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -4702,7 +4702,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="B84">
-        <v>5.4406699999999999</v>
+        <v>13.626200000000001</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -4710,7 +4710,7 @@
         <v>8.4</v>
       </c>
       <c r="B85">
-        <v>5.4082400000000002</v>
+        <v>13.4969</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -4718,7 +4718,7 @@
         <v>8.5</v>
       </c>
       <c r="B86">
-        <v>5.3752399999999998</v>
+        <v>13.366899999999999</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -4726,7 +4726,7 @@
         <v>8.6</v>
       </c>
       <c r="B87">
-        <v>5.3417000000000003</v>
+        <v>13.2363</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -4734,7 +4734,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="B88">
-        <v>5.3076499999999998</v>
+        <v>13.1052</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -4742,7 +4742,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="B89">
-        <v>5.2731300000000001</v>
+        <v>12.973699999999999</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -4750,7 +4750,7 @@
         <v>8.9</v>
       </c>
       <c r="B90">
-        <v>5.2381500000000001</v>
+        <v>12.841900000000001</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -4758,7 +4758,7 @@
         <v>9</v>
       </c>
       <c r="B91">
-        <v>5.20275</v>
+        <v>12.7098</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -4766,7 +4766,7 @@
         <v>9.1</v>
       </c>
       <c r="B92">
-        <v>5.1669499999999999</v>
+        <v>12.577500000000001</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -4774,7 +4774,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="B93">
-        <v>5.1307700000000001</v>
+        <v>12.445</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -4782,7 +4782,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="B94">
-        <v>5.0942499999999997</v>
+        <v>12.3126</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -4790,7 +4790,7 @@
         <v>9.4</v>
       </c>
       <c r="B95">
-        <v>5.0574000000000003</v>
+        <v>12.180099999999999</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -4798,7 +4798,7 @@
         <v>9.5</v>
       </c>
       <c r="B96">
-        <v>5.0202499999999999</v>
+        <v>12.047700000000001</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -4806,7 +4806,7 @@
         <v>9.6</v>
       </c>
       <c r="B97">
-        <v>4.9828200000000002</v>
+        <v>11.9154</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -4814,7 +4814,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="B98">
-        <v>4.9451299999999998</v>
+        <v>11.783200000000001</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -4822,7 +4822,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="B99">
-        <v>4.9072100000000001</v>
+        <v>11.651300000000001</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -4830,7 +4830,7 @@
         <v>9.9</v>
       </c>
       <c r="B100">
-        <v>4.8690699999999998</v>
+        <v>11.5197</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -4838,7 +4838,7 @@
         <v>10</v>
       </c>
       <c r="B101">
-        <v>4.8307399999999996</v>
+        <v>11.388400000000001</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -4846,7 +4846,7 @@
         <v>10.1</v>
       </c>
       <c r="B102">
-        <v>4.7922200000000004</v>
+        <v>11.2575</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -4854,7 +4854,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="B103">
-        <v>4.7535499999999997</v>
+        <v>11.127000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -4862,7 +4862,7 @@
         <v>10.3</v>
       </c>
       <c r="B104">
-        <v>4.7147399999999999</v>
+        <v>10.9969</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -4870,7 +4870,7 @@
         <v>10.4</v>
       </c>
       <c r="B105">
-        <v>4.6757999999999997</v>
+        <v>10.8673</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -4878,7 +4878,7 @@
         <v>10.5</v>
       </c>
       <c r="B106">
-        <v>4.6367500000000001</v>
+        <v>10.738300000000001</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -4886,7 +4886,7 @@
         <v>10.6</v>
       </c>
       <c r="B107">
-        <v>4.59762</v>
+        <v>10.6098</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -4894,7 +4894,7 @@
         <v>10.7</v>
       </c>
       <c r="B108">
-        <v>4.5584100000000003</v>
+        <v>10.481999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -4902,7 +4902,7 @@
         <v>10.8</v>
       </c>
       <c r="B109">
-        <v>4.5191400000000002</v>
+        <v>10.354799999999999</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -4910,7 +4910,7 @@
         <v>10.9</v>
       </c>
       <c r="B110">
-        <v>4.4798200000000001</v>
+        <v>10.228199999999999</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -4918,7 +4918,7 @@
         <v>11</v>
       </c>
       <c r="B111">
-        <v>4.4404700000000004</v>
+        <v>10.102399999999999</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -4926,7 +4926,7 @@
         <v>11.1</v>
       </c>
       <c r="B112">
-        <v>4.4010999999999996</v>
+        <v>9.9772200000000009</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -4934,7 +4934,7 @@
         <v>11.2</v>
       </c>
       <c r="B113">
-        <v>4.3617299999999997</v>
+        <v>9.8528400000000005</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -4942,7 +4942,7 @@
         <v>11.3</v>
       </c>
       <c r="B114">
-        <v>4.3223700000000003</v>
+        <v>9.7292299999999994</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -4950,7 +4950,7 @@
         <v>11.4</v>
       </c>
       <c r="B115">
-        <v>4.2830199999999996</v>
+        <v>9.60642</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -4958,7 +4958,7 @@
         <v>11.5</v>
       </c>
       <c r="B116">
-        <v>4.2437100000000001</v>
+        <v>9.4844299999999997</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -4966,7 +4966,7 @@
         <v>11.6</v>
       </c>
       <c r="B117">
-        <v>4.20444</v>
+        <v>9.3632799999999996</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -4974,7 +4974,7 @@
         <v>11.7</v>
       </c>
       <c r="B118">
-        <v>4.1652199999999997</v>
+        <v>9.2430000000000003</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -4982,7 +4982,7 @@
         <v>11.8</v>
       </c>
       <c r="B119">
-        <v>4.1260700000000003</v>
+        <v>9.1235900000000001</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -4990,7 +4990,7 @@
         <v>11.9</v>
       </c>
       <c r="B120">
-        <v>4.0869999999999997</v>
+        <v>9.0050799999999995</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -4998,7 +4998,7 @@
         <v>12</v>
       </c>
       <c r="B121">
-        <v>4.048</v>
+        <v>8.88748</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -5006,7 +5006,7 @@
         <v>12.1</v>
       </c>
       <c r="B122">
-        <v>4.0091000000000001</v>
+        <v>8.7707999999999995</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -5014,7 +5014,7 @@
         <v>12.2</v>
       </c>
       <c r="B123">
-        <v>3.97031</v>
+        <v>8.6550700000000003</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -5022,7 +5022,7 @@
         <v>12.3</v>
       </c>
       <c r="B124">
-        <v>3.9316200000000001</v>
+        <v>8.5402900000000006</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -5030,7 +5030,7 @@
         <v>12.4</v>
       </c>
       <c r="B125">
-        <v>3.8930500000000001</v>
+        <v>8.4264700000000001</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -5038,7 +5038,7 @@
         <v>12.5</v>
       </c>
       <c r="B126">
-        <v>3.8546200000000002</v>
+        <v>8.3136299999999999</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -5046,7 +5046,7 @@
         <v>12.6</v>
       </c>
       <c r="B127">
-        <v>3.8163100000000001</v>
+        <v>8.2017799999999994</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -5054,7 +5054,7 @@
         <v>12.7</v>
       </c>
       <c r="B128">
-        <v>3.7781500000000001</v>
+        <v>8.0909200000000006</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -5062,7 +5062,7 @@
         <v>12.8</v>
       </c>
       <c r="B129">
-        <v>3.7401399999999998</v>
+        <v>7.9810699999999999</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -5070,7 +5070,7 @@
         <v>12.9</v>
       </c>
       <c r="B130">
-        <v>3.7022900000000001</v>
+        <v>7.8722200000000004</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -5078,7 +5078,7 @@
         <v>13</v>
       </c>
       <c r="B131">
-        <v>3.66459</v>
+        <v>7.7644000000000002</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -5086,7 +5086,7 @@
         <v>13.1</v>
       </c>
       <c r="B132">
-        <v>3.6270699999999998</v>
+        <v>7.6576000000000004</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -5094,7 +5094,7 @@
         <v>13.2</v>
       </c>
       <c r="B133">
-        <v>3.5897199999999998</v>
+        <v>7.5518200000000002</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -5102,7 +5102,7 @@
         <v>13.3</v>
       </c>
       <c r="B134">
-        <v>3.5525600000000002</v>
+        <v>7.4470799999999997</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -5110,7 +5110,7 @@
         <v>13.4</v>
       </c>
       <c r="B135">
-        <v>3.5155799999999999</v>
+        <v>7.3433799999999998</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -5118,7 +5118,7 @@
         <v>13.5</v>
       </c>
       <c r="B136">
-        <v>3.47879</v>
+        <v>7.2407199999999996</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -5126,7 +5126,7 @@
         <v>13.6</v>
       </c>
       <c r="B137">
-        <v>3.4421900000000001</v>
+        <v>7.1391</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -5134,7 +5134,7 @@
         <v>13.7</v>
       </c>
       <c r="B138">
-        <v>3.4058000000000002</v>
+        <v>7.0385299999999997</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -5142,7 +5142,7 @@
         <v>13.8</v>
       </c>
       <c r="B139">
-        <v>3.3696100000000002</v>
+        <v>6.9390099999999997</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -5150,7 +5150,7 @@
         <v>13.9</v>
       </c>
       <c r="B140">
-        <v>3.3336399999999999</v>
+        <v>6.8405300000000002</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -5158,7 +5158,7 @@
         <v>14</v>
       </c>
       <c r="B141">
-        <v>3.2978700000000001</v>
+        <v>6.7431000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -5166,7 +5166,7 @@
         <v>14.1</v>
       </c>
       <c r="B142">
-        <v>3.2623199999999999</v>
+        <v>6.6467200000000002</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -5174,7 +5174,7 @@
         <v>14.2</v>
       </c>
       <c r="B143">
-        <v>3.2269999999999999</v>
+        <v>6.5513899999999996</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -5182,7 +5182,7 @@
         <v>14.3</v>
       </c>
       <c r="B144">
-        <v>3.1919</v>
+        <v>6.4571100000000001</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -5190,7 +5190,7 @@
         <v>14.4</v>
       </c>
       <c r="B145">
-        <v>3.1570200000000002</v>
+        <v>6.3638700000000004</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -5198,7 +5198,7 @@
         <v>14.5</v>
       </c>
       <c r="B146">
-        <v>3.1223800000000002</v>
+        <v>6.2716700000000003</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -5206,7 +5206,7 @@
         <v>14.6</v>
       </c>
       <c r="B147">
-        <v>3.0879699999999999</v>
+        <v>6.1805199999999996</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -5214,7 +5214,7 @@
         <v>14.7</v>
       </c>
       <c r="B148">
-        <v>3.0537899999999998</v>
+        <v>6.0903999999999998</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -5222,7 +5222,7 @@
         <v>14.8</v>
       </c>
       <c r="B149">
-        <v>3.0198499999999999</v>
+        <v>6.0013300000000003</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -5230,7 +5230,7 @@
         <v>14.9</v>
       </c>
       <c r="B150">
-        <v>2.9861599999999999</v>
+        <v>5.9132800000000003</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -5238,7 +5238,7 @@
         <v>15</v>
       </c>
       <c r="B151">
-        <v>2.9527000000000001</v>
+        <v>5.8262700000000001</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -5246,7 +5246,7 @@
         <v>15.1</v>
       </c>
       <c r="B152">
-        <v>2.9195000000000002</v>
+        <v>5.7402699999999998</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -5254,7 +5254,7 @@
         <v>15.2</v>
       </c>
       <c r="B153">
-        <v>2.8865400000000001</v>
+        <v>5.6553100000000001</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -5262,7 +5262,7 @@
         <v>15.3</v>
       </c>
       <c r="B154">
-        <v>2.8538199999999998</v>
+        <v>5.5713499999999998</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -5270,7 +5270,7 @@
         <v>15.4</v>
       </c>
       <c r="B155">
-        <v>2.8213599999999999</v>
+        <v>5.48841</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -5278,7 +5278,7 @@
         <v>15.5</v>
       </c>
       <c r="B156">
-        <v>2.7891499999999998</v>
+        <v>5.4064800000000002</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -5286,7 +5286,7 @@
         <v>15.6</v>
       </c>
       <c r="B157">
-        <v>2.75719</v>
+        <v>5.3255400000000002</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -5294,7 +5294,7 @@
         <v>15.7</v>
       </c>
       <c r="B158">
-        <v>2.7254900000000002</v>
+        <v>5.2456100000000001</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -5302,7 +5302,7 @@
         <v>15.8</v>
       </c>
       <c r="B159">
-        <v>2.6940400000000002</v>
+        <v>5.1666600000000003</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -5310,7 +5310,7 @@
         <v>15.9</v>
       </c>
       <c r="B160">
-        <v>2.6628500000000002</v>
+        <v>5.0887000000000002</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -5318,7 +5318,7 @@
         <v>16</v>
       </c>
       <c r="B161">
-        <v>2.63192</v>
+        <v>5.0117099999999999</v>
       </c>
     </row>
   </sheetData>
